--- a/Code/Results/Cases/Case_2_118/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_118/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.02242726271981</v>
+        <v>14.88903588170909</v>
       </c>
       <c r="C2">
-        <v>6.828661014105516</v>
+        <v>8.914391069298858</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.993049400961345</v>
+        <v>14.00576996002193</v>
       </c>
       <c r="F2">
-        <v>35.39878463312036</v>
+        <v>47.13236582543433</v>
       </c>
       <c r="G2">
-        <v>44.8696855467665</v>
+        <v>54.74629978412564</v>
       </c>
       <c r="H2">
-        <v>14.41159778445908</v>
+        <v>20.77934469939177</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.779261937533936</v>
+        <v>10.02121827833715</v>
       </c>
       <c r="K2">
-        <v>10.04040965586402</v>
+        <v>10.89431346536594</v>
       </c>
       <c r="L2">
-        <v>6.388187825985405</v>
+        <v>11.25414926259406</v>
       </c>
       <c r="M2">
-        <v>10.04630593023737</v>
+        <v>16.17100675595452</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.28411138616626</v>
+        <v>14.76818376998755</v>
       </c>
       <c r="C3">
-        <v>6.761540660237854</v>
+        <v>8.891888479506246</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.933540545333005</v>
+        <v>14.02366839923798</v>
       </c>
       <c r="F3">
-        <v>34.73336906258193</v>
+        <v>47.10553734332376</v>
       </c>
       <c r="G3">
-        <v>44.15348632510616</v>
+        <v>54.69275038002143</v>
       </c>
       <c r="H3">
-        <v>14.37532594643042</v>
+        <v>20.80723857698386</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.821085079543739</v>
+        <v>10.02819323177236</v>
       </c>
       <c r="K3">
-        <v>9.407067781592634</v>
+        <v>10.81310739745977</v>
       </c>
       <c r="L3">
-        <v>6.290070261960286</v>
+        <v>11.26459044306134</v>
       </c>
       <c r="M3">
-        <v>9.766866178097654</v>
+        <v>16.16794370854588</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.81472777171695</v>
+        <v>14.69718008317833</v>
       </c>
       <c r="C4">
-        <v>6.719913104594921</v>
+        <v>8.877636286502833</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.899742002951158</v>
+        <v>14.03619889554529</v>
       </c>
       <c r="F4">
-        <v>34.34082156299916</v>
+        <v>47.0976629261466</v>
       </c>
       <c r="G4">
-        <v>43.73936367937184</v>
+        <v>54.67054597351212</v>
       </c>
       <c r="H4">
-        <v>14.36027782478579</v>
+        <v>20.8271399549611</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.846988229096332</v>
+        <v>10.0326193798214</v>
       </c>
       <c r="K4">
-        <v>8.997450922840038</v>
+        <v>10.76559128574097</v>
       </c>
       <c r="L4">
-        <v>6.231761099916065</v>
+        <v>11.27244862291934</v>
       </c>
       <c r="M4">
-        <v>9.596325881784077</v>
+        <v>16.16869874344243</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.61960638764901</v>
+        <v>14.6690802622842</v>
       </c>
       <c r="C5">
-        <v>6.702837784623697</v>
+        <v>8.871718996135849</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.886657970219709</v>
+        <v>14.04169329617436</v>
       </c>
       <c r="F5">
-        <v>34.18494972575104</v>
+        <v>47.09661973717634</v>
       </c>
       <c r="G5">
-        <v>43.57699417384684</v>
+        <v>54.66418517905828</v>
       </c>
       <c r="H5">
-        <v>14.35590505867882</v>
+        <v>20.83594718919653</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.857609004164297</v>
+        <v>10.03445930531933</v>
       </c>
       <c r="K5">
-        <v>8.825301147577939</v>
+        <v>10.74683718491995</v>
       </c>
       <c r="L5">
-        <v>6.20850490774709</v>
+        <v>11.27601552425845</v>
       </c>
       <c r="M5">
-        <v>9.527182030142487</v>
+        <v>16.16967136250648</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.58698098064621</v>
+        <v>14.66446557485152</v>
       </c>
       <c r="C6">
-        <v>6.6999954917</v>
+        <v>8.870729829847573</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.884526985837831</v>
+        <v>14.04262909816098</v>
       </c>
       <c r="F6">
-        <v>34.15931637894717</v>
+        <v>47.0965774005037</v>
       </c>
       <c r="G6">
-        <v>43.55041681184277</v>
+        <v>54.6632913656825</v>
       </c>
       <c r="H6">
-        <v>14.355283576674</v>
+        <v>20.83745172350317</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.859376750932314</v>
+        <v>10.03476701640973</v>
       </c>
       <c r="K6">
-        <v>8.796399904640037</v>
+        <v>10.74376041759236</v>
       </c>
       <c r="L6">
-        <v>6.204674279491237</v>
+        <v>11.27662984779976</v>
       </c>
       <c r="M6">
-        <v>9.515724812215465</v>
+        <v>16.16987308339743</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.812111572499</v>
+        <v>14.69679770065733</v>
       </c>
       <c r="C7">
-        <v>6.719683282462594</v>
+        <v>8.877556926686145</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.899562757241189</v>
+        <v>14.03627142257579</v>
       </c>
       <c r="F7">
-        <v>34.33870276159336</v>
+        <v>47.09764008471918</v>
       </c>
       <c r="G7">
-        <v>43.73714812273409</v>
+        <v>54.67044930431667</v>
       </c>
       <c r="H7">
-        <v>14.36021180292268</v>
+        <v>20.82725590983212</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.84713119001291</v>
+        <v>10.03264404679669</v>
       </c>
       <c r="K7">
-        <v>8.995150426329609</v>
+        <v>10.76533587020069</v>
       </c>
       <c r="L7">
-        <v>6.231445388965966</v>
+        <v>11.27249525013116</v>
       </c>
       <c r="M7">
-        <v>9.595391831081598</v>
+        <v>16.1687091655767</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.77129110011517</v>
+        <v>14.84672042671911</v>
       </c>
       <c r="C8">
-        <v>6.805599482178559</v>
+        <v>8.906722627130859</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.971962337055542</v>
+        <v>14.01162196728649</v>
       </c>
       <c r="F8">
-        <v>35.16606612042683</v>
+        <v>47.12133324676322</v>
       </c>
       <c r="G8">
-        <v>44.61739206783535</v>
+        <v>54.72562283114134</v>
       </c>
       <c r="H8">
-        <v>14.39755784526665</v>
+        <v>20.78838646398836</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.793641638400404</v>
+        <v>10.02359355062519</v>
       </c>
       <c r="K8">
-        <v>9.82632871436028</v>
+        <v>10.8658389782963</v>
       </c>
       <c r="L8">
-        <v>6.353966536384169</v>
+        <v>11.25744944209444</v>
       </c>
       <c r="M8">
-        <v>9.949793734504572</v>
+        <v>16.16940493229505</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.5184137514639</v>
+        <v>15.16471714053727</v>
       </c>
       <c r="C9">
-        <v>6.971162837428565</v>
+        <v>8.960457785640068</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.135646158382059</v>
+        <v>13.97547963504825</v>
       </c>
       <c r="F9">
-        <v>36.91250910473278</v>
+        <v>47.23581886025903</v>
       </c>
       <c r="G9">
-        <v>46.54883908294102</v>
+        <v>54.91830492656671</v>
       </c>
       <c r="H9">
-        <v>14.53067419185402</v>
+        <v>20.73419319943108</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.690093031922213</v>
+        <v>10.00697699427834</v>
       </c>
       <c r="K9">
-        <v>11.29265361282903</v>
+        <v>11.08062452634117</v>
       </c>
       <c r="L9">
-        <v>6.608751788923806</v>
+        <v>11.23939568951802</v>
       </c>
       <c r="M9">
-        <v>10.64922131777878</v>
+        <v>16.19157887967024</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.73832850482273</v>
+        <v>15.41103056065296</v>
       </c>
       <c r="C10">
-        <v>7.091629934028007</v>
+        <v>8.997826731026077</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.269068145386955</v>
+        <v>13.95631910438758</v>
       </c>
       <c r="F10">
-        <v>38.26703212017777</v>
+        <v>47.36106602443358</v>
       </c>
       <c r="G10">
-        <v>48.09534678368536</v>
+        <v>55.11098375201556</v>
       </c>
       <c r="H10">
-        <v>14.66856100919646</v>
+        <v>20.70782629110015</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.614185405546078</v>
+        <v>9.995448126905991</v>
       </c>
       <c r="K10">
-        <v>12.27209354396456</v>
+        <v>11.2479443022912</v>
       </c>
       <c r="L10">
-        <v>6.803684781063242</v>
+        <v>11.23306718221957</v>
       </c>
       <c r="M10">
-        <v>11.16120984099989</v>
+        <v>16.22040274370795</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.32358417172628</v>
+        <v>15.52540490571523</v>
       </c>
       <c r="C11">
-        <v>7.146337036256916</v>
+        <v>9.014368346247736</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.332601455056981</v>
+        <v>13.94919851314428</v>
       </c>
       <c r="F11">
-        <v>38.89793409328327</v>
+        <v>47.4268799609888</v>
       </c>
       <c r="G11">
-        <v>48.82703792770279</v>
+        <v>55.20961671438972</v>
       </c>
       <c r="H11">
-        <v>14.74078279291416</v>
+        <v>20.69875392275077</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.579530850069252</v>
+        <v>9.990348594518444</v>
       </c>
       <c r="K11">
-        <v>12.6969482500916</v>
+        <v>11.32584370116215</v>
       </c>
       <c r="L11">
-        <v>6.893820128855767</v>
+        <v>11.23168339664038</v>
       </c>
       <c r="M11">
-        <v>11.39290055501633</v>
+        <v>16.23619854965706</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.54110188585996</v>
+        <v>15.56901262779637</v>
       </c>
       <c r="C12">
-        <v>7.167054682432343</v>
+        <v>9.020566318887811</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.357065716802376</v>
+        <v>13.94673073529565</v>
       </c>
       <c r="F12">
-        <v>39.13889877409107</v>
+        <v>47.45306256993808</v>
       </c>
       <c r="G12">
-        <v>49.10820257775006</v>
+        <v>55.24853221309274</v>
       </c>
       <c r="H12">
-        <v>14.76956333979464</v>
+        <v>20.69573862388007</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.566375755298733</v>
+        <v>9.98843822083405</v>
       </c>
       <c r="K12">
-        <v>12.85490394835423</v>
+        <v>11.35557418881199</v>
       </c>
       <c r="L12">
-        <v>6.928144149021496</v>
+        <v>11.23137335396501</v>
       </c>
       <c r="M12">
-        <v>11.48040408470057</v>
+        <v>16.24256218282799</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.49443699958632</v>
+        <v>15.55960833453677</v>
       </c>
       <c r="C13">
-        <v>7.162592455275604</v>
+        <v>9.019234411532157</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.351778902793443</v>
+        <v>13.94725206012905</v>
       </c>
       <c r="F13">
-        <v>39.08691212022901</v>
+        <v>47.44736780719798</v>
       </c>
       <c r="G13">
-        <v>49.04746616494378</v>
+        <v>55.24008168656073</v>
       </c>
       <c r="H13">
-        <v>14.76330018338516</v>
+        <v>20.69636933430685</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.569210613926909</v>
+        <v>9.988848735244845</v>
       </c>
       <c r="K13">
-        <v>12.821014730342</v>
+        <v>11.34916129298281</v>
       </c>
       <c r="L13">
-        <v>6.920743603315227</v>
+        <v>11.23143062797419</v>
       </c>
       <c r="M13">
-        <v>11.46156980922862</v>
+        <v>16.24117472996147</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.34156135597078</v>
+        <v>15.52898681105702</v>
       </c>
       <c r="C14">
-        <v>7.148041372972681</v>
+        <v>9.014879580404186</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.334606030926448</v>
+        <v>13.9489909101678</v>
       </c>
       <c r="F14">
-        <v>38.91771750545868</v>
+        <v>47.42900882710635</v>
       </c>
       <c r="G14">
-        <v>48.85008730912767</v>
+        <v>55.21278703048236</v>
       </c>
       <c r="H14">
-        <v>14.74312150607017</v>
+        <v>20.69849743093203</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.578449304179836</v>
+        <v>9.990191012715071</v>
       </c>
       <c r="K14">
-        <v>12.71000173391211</v>
+        <v>11.32828514715659</v>
       </c>
       <c r="L14">
-        <v>6.896640242947038</v>
+        <v>11.23165360712612</v>
       </c>
       <c r="M14">
-        <v>11.40010448642772</v>
+        <v>16.23671445444685</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.24738805369831</v>
+        <v>15.51026775130465</v>
       </c>
       <c r="C15">
-        <v>7.139129048790631</v>
+        <v>9.012203523544567</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.324139892530615</v>
+        <v>13.95008575635076</v>
       </c>
       <c r="F15">
-        <v>38.81434704772608</v>
+        <v>47.41792721268624</v>
       </c>
       <c r="G15">
-        <v>48.72972086878206</v>
+        <v>55.19627167400579</v>
       </c>
       <c r="H15">
-        <v>14.73094993281762</v>
+        <v>20.69985567407328</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.584103630834644</v>
+        <v>9.991015889041833</v>
       </c>
       <c r="K15">
-        <v>12.64162335590377</v>
+        <v>11.31552733015788</v>
       </c>
       <c r="L15">
-        <v>6.881900692950163</v>
+        <v>11.23181802158707</v>
       </c>
       <c r="M15">
-        <v>11.36242333106811</v>
+        <v>16.23403205040961</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.69950221448235</v>
+        <v>15.40359949889005</v>
       </c>
       <c r="C16">
-        <v>7.088054025098211</v>
+        <v>8.996736473638977</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.264972991086806</v>
+        <v>13.95681649114446</v>
       </c>
       <c r="F16">
-        <v>38.22609192255704</v>
+        <v>47.35694189778703</v>
       </c>
       <c r="G16">
-        <v>48.04809900106786</v>
+        <v>55.10475770221086</v>
       </c>
       <c r="H16">
-        <v>14.66403785009821</v>
+        <v>20.70847799539397</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.616446472771028</v>
+        <v>9.995784298995439</v>
       </c>
       <c r="K16">
-        <v>12.24391583883837</v>
+        <v>11.24288717980328</v>
       </c>
       <c r="L16">
-        <v>6.797822007959378</v>
+        <v>11.23318761469697</v>
       </c>
       <c r="M16">
-        <v>11.14603869085325</v>
+        <v>16.21942413428675</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.37364833265361</v>
+        <v>15.33873077366522</v>
       </c>
       <c r="C17">
-        <v>7.056707009345693</v>
+        <v>8.987130595888825</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.229401217871263</v>
+        <v>13.96135369005143</v>
       </c>
       <c r="F17">
-        <v>37.86893981270831</v>
+        <v>47.32178592195685</v>
       </c>
       <c r="G17">
-        <v>47.63718645625983</v>
+        <v>55.05142038456402</v>
       </c>
       <c r="H17">
-        <v>14.62546820441298</v>
+        <v>20.71451597088157</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.636246235231713</v>
+        <v>9.998746601777937</v>
       </c>
       <c r="K17">
-        <v>11.99466691108899</v>
+        <v>11.1987642585267</v>
       </c>
       <c r="L17">
-        <v>6.746602900030088</v>
+        <v>11.23441003442459</v>
       </c>
       <c r="M17">
-        <v>11.01293833902109</v>
+        <v>16.21114738824663</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.19579156227148</v>
+        <v>15.30164113434307</v>
       </c>
       <c r="C18">
-        <v>7.038667198383405</v>
+        <v>8.98156247731273</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.209208654020053</v>
+        <v>13.96411360607684</v>
       </c>
       <c r="F18">
-        <v>37.66490414926714</v>
+        <v>47.30239776057456</v>
       </c>
       <c r="G18">
-        <v>47.4034899408145</v>
+        <v>55.02177683644008</v>
       </c>
       <c r="H18">
-        <v>14.60417375341566</v>
+        <v>20.71826389923033</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.647623816735891</v>
+        <v>10.0004640972676</v>
       </c>
       <c r="K18">
-        <v>11.84935410911172</v>
+        <v>11.17355543272481</v>
       </c>
       <c r="L18">
-        <v>6.717281394779016</v>
+        <v>11.23525392771368</v>
       </c>
       <c r="M18">
-        <v>10.93627104091184</v>
+        <v>16.20663966970862</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.13525486299019</v>
+        <v>15.28912234405429</v>
       </c>
       <c r="C19">
-        <v>7.032557118988775</v>
+        <v>8.979669815301436</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.202417804407428</v>
+        <v>13.96507389417237</v>
       </c>
       <c r="F19">
-        <v>37.59606177419722</v>
+        <v>47.29597657068194</v>
       </c>
       <c r="G19">
-        <v>47.32481839257355</v>
+        <v>55.01191813924508</v>
       </c>
       <c r="H19">
-        <v>14.59711465434227</v>
+        <v>20.71958012021097</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.651474646200668</v>
+        <v>10.00104796176156</v>
       </c>
       <c r="K19">
-        <v>11.79981714293812</v>
+        <v>11.16505002720901</v>
       </c>
       <c r="L19">
-        <v>6.707377977317373</v>
+        <v>11.23556386640811</v>
       </c>
       <c r="M19">
-        <v>10.91029557482564</v>
+        <v>16.20515697173825</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.40641452924061</v>
+        <v>15.34561354575217</v>
       </c>
       <c r="C20">
-        <v>7.060044869685421</v>
+        <v>8.988157616912117</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.233160240843498</v>
+        <v>13.96085515407988</v>
       </c>
       <c r="F20">
-        <v>37.90681601522876</v>
+        <v>47.32544223505674</v>
       </c>
       <c r="G20">
-        <v>47.68065434585397</v>
+        <v>55.05699124389211</v>
       </c>
       <c r="H20">
-        <v>14.62948144599311</v>
+        <v>20.71384475148614</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.634139725929362</v>
+        <v>9.998429847145585</v>
       </c>
       <c r="K20">
-        <v>12.02140151367398</v>
+        <v>11.20344385499988</v>
       </c>
       <c r="L20">
-        <v>6.752041076497112</v>
+        <v>11.23426534175991</v>
       </c>
       <c r="M20">
-        <v>11.02711908664861</v>
+        <v>16.21200231996921</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.38657549039299</v>
+        <v>15.53797334585369</v>
       </c>
       <c r="C21">
-        <v>7.152315217382986</v>
+        <v>9.016160491773851</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.339639132879748</v>
+        <v>13.94847396932405</v>
       </c>
       <c r="F21">
-        <v>38.9673586943781</v>
+        <v>47.43436719142645</v>
       </c>
       <c r="G21">
-        <v>48.90795093603165</v>
+        <v>55.22076176986288</v>
       </c>
       <c r="H21">
-        <v>14.74900907925334</v>
+        <v>20.69786095335933</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.575736670969603</v>
+        <v>9.989796192399842</v>
       </c>
       <c r="K21">
-        <v>12.74268797870829</v>
+        <v>11.33441088998817</v>
       </c>
       <c r="L21">
-        <v>6.903714918175945</v>
+        <v>11.23158231423124</v>
       </c>
       <c r="M21">
-        <v>11.41816507396534</v>
+        <v>16.23801420700737</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.01213550208109</v>
+        <v>15.66540301458289</v>
       </c>
       <c r="C22">
-        <v>7.212634796424979</v>
+        <v>9.034077344434888</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.411592186141061</v>
+        <v>13.94171440919892</v>
       </c>
       <c r="F22">
-        <v>39.67244912905688</v>
+        <v>47.51289612660585</v>
       </c>
       <c r="G22">
-        <v>49.73392072635986</v>
+        <v>55.33691150803642</v>
       </c>
       <c r="H22">
-        <v>14.83550466998625</v>
+        <v>20.68986385618747</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.537371759055241</v>
+        <v>9.984274239064254</v>
       </c>
       <c r="K22">
-        <v>13.19705297056623</v>
+        <v>11.42134405790937</v>
       </c>
       <c r="L22">
-        <v>7.003952734784348</v>
+        <v>11.23107544211694</v>
       </c>
       <c r="M22">
-        <v>11.67235944386802</v>
+        <v>16.25723971260074</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.68042435335906</v>
+        <v>15.59724732073753</v>
       </c>
       <c r="C23">
-        <v>7.180434289871377</v>
+        <v>9.024550030978194</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.372974104260447</v>
+        <v>13.94520048996397</v>
       </c>
       <c r="F23">
-        <v>39.29505099278312</v>
+        <v>47.47031596641395</v>
       </c>
       <c r="G23">
-        <v>49.29088648183988</v>
+        <v>55.27409114282442</v>
       </c>
       <c r="H23">
-        <v>14.78855142854987</v>
+        <v>20.69390797335724</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.557870789188421</v>
+        <v>9.987210418235474</v>
       </c>
       <c r="K23">
-        <v>12.95609117905232</v>
+        <v>11.3748320183806</v>
       </c>
       <c r="L23">
-        <v>6.950357937396746</v>
+        <v>11.23123225680436</v>
       </c>
       <c r="M23">
-        <v>11.53683386349847</v>
+        <v>16.24677641905381</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.39160695680658</v>
+        <v>15.34250120538182</v>
       </c>
       <c r="C24">
-        <v>7.058535880165259</v>
+        <v>8.987693442666064</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.231459982357148</v>
+        <v>13.96108007048725</v>
       </c>
       <c r="F24">
-        <v>37.88968814296588</v>
+        <v>47.3237866499646</v>
       </c>
       <c r="G24">
-        <v>47.6609945960352</v>
+        <v>55.05446947754953</v>
       </c>
       <c r="H24">
-        <v>14.62766432422591</v>
+        <v>20.71414734808091</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.635092095051231</v>
+        <v>9.998573006948863</v>
       </c>
       <c r="K24">
-        <v>12.00932108370388</v>
+        <v>11.20132771528021</v>
       </c>
       <c r="L24">
-        <v>6.749582086042287</v>
+        <v>11.23433031770552</v>
       </c>
       <c r="M24">
-        <v>11.02070842131131</v>
+        <v>16.21161502416344</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.06085092132428</v>
+        <v>15.07631860048388</v>
       </c>
       <c r="C25">
-        <v>6.92662780376077</v>
+        <v>8.946291455683973</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.089046593256381</v>
+        <v>13.98395565078099</v>
       </c>
       <c r="F25">
-        <v>36.42721016266041</v>
+        <v>47.19759468477811</v>
       </c>
       <c r="G25">
-        <v>46.00409375035465</v>
+        <v>54.85716731601882</v>
       </c>
       <c r="H25">
-        <v>14.48788527455499</v>
+        <v>20.74649314401109</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.718025684048169</v>
+        <v>10.0113521654925</v>
       </c>
       <c r="K25">
-        <v>10.91332096070217</v>
+        <v>11.02075299007345</v>
       </c>
       <c r="L25">
-        <v>6.538386478783373</v>
+        <v>11.24305822894401</v>
       </c>
       <c r="M25">
-        <v>10.460032808613</v>
+        <v>16.18336715551591</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_118/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_118/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.88903588170909</v>
+        <v>13.02242726271983</v>
       </c>
       <c r="C2">
-        <v>8.914391069298858</v>
+        <v>6.828661014105514</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.00576996002193</v>
+        <v>7.993049400961398</v>
       </c>
       <c r="F2">
-        <v>47.13236582543433</v>
+        <v>35.39878463312055</v>
       </c>
       <c r="G2">
-        <v>54.74629978412564</v>
+        <v>44.86968554676667</v>
       </c>
       <c r="H2">
-        <v>20.77934469939177</v>
+        <v>14.41159778445917</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.02121827833715</v>
+        <v>6.779261937533899</v>
       </c>
       <c r="K2">
-        <v>10.89431346536594</v>
+        <v>10.04040965586396</v>
       </c>
       <c r="L2">
-        <v>11.25414926259406</v>
+        <v>6.388187825985417</v>
       </c>
       <c r="M2">
-        <v>16.17100675595452</v>
+        <v>10.04630593023743</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.76818376998755</v>
+        <v>12.28411138616625</v>
       </c>
       <c r="C3">
-        <v>8.891888479506246</v>
+        <v>6.761540660237592</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.02366839923798</v>
+        <v>7.933540545332954</v>
       </c>
       <c r="F3">
-        <v>47.10553734332376</v>
+        <v>34.73336906258191</v>
       </c>
       <c r="G3">
-        <v>54.69275038002143</v>
+        <v>44.1534863251062</v>
       </c>
       <c r="H3">
-        <v>20.80723857698386</v>
+        <v>14.37532594643038</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.02819323177236</v>
+        <v>6.821085079543705</v>
       </c>
       <c r="K3">
-        <v>10.81310739745977</v>
+        <v>9.407067781592636</v>
       </c>
       <c r="L3">
-        <v>11.26459044306134</v>
+        <v>6.290070261960344</v>
       </c>
       <c r="M3">
-        <v>16.16794370854588</v>
+        <v>9.766866178097636</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.69718008317833</v>
+        <v>11.81472777171694</v>
       </c>
       <c r="C4">
-        <v>8.877636286502833</v>
+        <v>6.719913104595056</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.03619889554529</v>
+        <v>7.899742002951209</v>
       </c>
       <c r="F4">
-        <v>47.0976629261466</v>
+        <v>34.3408215629992</v>
       </c>
       <c r="G4">
-        <v>54.67054597351212</v>
+        <v>43.73936367937184</v>
       </c>
       <c r="H4">
-        <v>20.8271399549611</v>
+        <v>14.36027782478579</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.0326193798214</v>
+        <v>6.846988229096334</v>
       </c>
       <c r="K4">
-        <v>10.76559128574097</v>
+        <v>8.997450922840052</v>
       </c>
       <c r="L4">
-        <v>11.27244862291934</v>
+        <v>6.231761099916063</v>
       </c>
       <c r="M4">
-        <v>16.16869874344243</v>
+        <v>9.59632588178407</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.6690802622842</v>
+        <v>11.61960638764897</v>
       </c>
       <c r="C5">
-        <v>8.871718996135849</v>
+        <v>6.702837784623836</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.04169329617436</v>
+        <v>7.886657970219765</v>
       </c>
       <c r="F5">
-        <v>47.09661973717634</v>
+        <v>34.18494972575092</v>
       </c>
       <c r="G5">
-        <v>54.66418517905828</v>
+        <v>43.57699417384632</v>
       </c>
       <c r="H5">
-        <v>20.83594718919653</v>
+        <v>14.35590505867875</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.03445930531933</v>
+        <v>6.857609004164162</v>
       </c>
       <c r="K5">
-        <v>10.74683718491995</v>
+        <v>8.825301147577987</v>
       </c>
       <c r="L5">
-        <v>11.27601552425845</v>
+        <v>6.208504907747102</v>
       </c>
       <c r="M5">
-        <v>16.16967136250648</v>
+        <v>9.527182030142464</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.66446557485152</v>
+        <v>11.58698098064622</v>
       </c>
       <c r="C6">
-        <v>8.870729829847573</v>
+        <v>6.699995491699867</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.04262909816098</v>
+        <v>7.884526985837832</v>
       </c>
       <c r="F6">
-        <v>47.0965774005037</v>
+        <v>34.15931637894713</v>
       </c>
       <c r="G6">
-        <v>54.6632913656825</v>
+        <v>43.55041681184291</v>
       </c>
       <c r="H6">
-        <v>20.83745172350317</v>
+        <v>14.35528357667399</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.03476701640973</v>
+        <v>6.859376750932412</v>
       </c>
       <c r="K6">
-        <v>10.74376041759236</v>
+        <v>8.796399904639985</v>
       </c>
       <c r="L6">
-        <v>11.27662984779976</v>
+        <v>6.204674279491263</v>
       </c>
       <c r="M6">
-        <v>16.16987308339743</v>
+        <v>9.515724812215492</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.69679770065733</v>
+        <v>11.81211157249903</v>
       </c>
       <c r="C7">
-        <v>8.877556926686145</v>
+        <v>6.719683282462728</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.03627142257579</v>
+        <v>7.899562757241198</v>
       </c>
       <c r="F7">
-        <v>47.09764008471918</v>
+        <v>34.33870276159338</v>
       </c>
       <c r="G7">
-        <v>54.67044930431667</v>
+        <v>43.73714812273439</v>
       </c>
       <c r="H7">
-        <v>20.82725590983212</v>
+        <v>14.36021180292266</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.03264404679669</v>
+        <v>6.847131190012975</v>
       </c>
       <c r="K7">
-        <v>10.76533587020069</v>
+        <v>8.995150426329594</v>
       </c>
       <c r="L7">
-        <v>11.27249525013116</v>
+        <v>6.231445388965952</v>
       </c>
       <c r="M7">
-        <v>16.1687091655767</v>
+        <v>9.595391831081642</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.84672042671911</v>
+        <v>12.77129110011521</v>
       </c>
       <c r="C8">
-        <v>8.906722627130859</v>
+        <v>6.805599482178691</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.01162196728649</v>
+        <v>7.971962337055601</v>
       </c>
       <c r="F8">
-        <v>47.12133324676322</v>
+        <v>35.16606612042706</v>
       </c>
       <c r="G8">
-        <v>54.72562283114134</v>
+        <v>44.61739206783535</v>
       </c>
       <c r="H8">
-        <v>20.78838646398836</v>
+        <v>14.3975578452668</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.02359355062519</v>
+        <v>6.793641638400338</v>
       </c>
       <c r="K8">
-        <v>10.8658389782963</v>
+        <v>9.826328714360258</v>
       </c>
       <c r="L8">
-        <v>11.25744944209444</v>
+        <v>6.353966536384164</v>
       </c>
       <c r="M8">
-        <v>16.16940493229505</v>
+        <v>9.949793734504594</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.16471714053727</v>
+        <v>14.51841375146388</v>
       </c>
       <c r="C9">
-        <v>8.960457785640068</v>
+        <v>6.971162837428167</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.97547963504825</v>
+        <v>8.135646158381819</v>
       </c>
       <c r="F9">
-        <v>47.23581886025903</v>
+        <v>36.91250910473271</v>
       </c>
       <c r="G9">
-        <v>54.91830492656671</v>
+        <v>46.54883908294131</v>
       </c>
       <c r="H9">
-        <v>20.73419319943108</v>
+        <v>14.53067419185402</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.00697699427834</v>
+        <v>6.69009303192228</v>
       </c>
       <c r="K9">
-        <v>11.08062452634117</v>
+        <v>11.29265361282895</v>
       </c>
       <c r="L9">
-        <v>11.23939568951802</v>
+        <v>6.608751788923743</v>
       </c>
       <c r="M9">
-        <v>16.19157887967024</v>
+        <v>10.64922131777873</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.41103056065296</v>
+        <v>15.7383285048227</v>
       </c>
       <c r="C10">
-        <v>8.997826731026077</v>
+        <v>7.091629934028139</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.95631910438758</v>
+        <v>8.269068145386992</v>
       </c>
       <c r="F10">
-        <v>47.36106602443358</v>
+        <v>38.26703212017779</v>
       </c>
       <c r="G10">
-        <v>55.11098375201556</v>
+        <v>48.09534678368544</v>
       </c>
       <c r="H10">
-        <v>20.70782629110015</v>
+        <v>14.66856100919649</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.995448126905991</v>
+        <v>6.614185405546212</v>
       </c>
       <c r="K10">
-        <v>11.2479443022912</v>
+        <v>12.27209354396456</v>
       </c>
       <c r="L10">
-        <v>11.23306718221957</v>
+        <v>6.803684781063239</v>
       </c>
       <c r="M10">
-        <v>16.22040274370795</v>
+        <v>11.16120984099991</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.52540490571523</v>
+        <v>16.32358417172627</v>
       </c>
       <c r="C11">
-        <v>9.014368346247736</v>
+        <v>7.146337036256907</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.94919851314428</v>
+        <v>8.332601455057038</v>
       </c>
       <c r="F11">
-        <v>47.4268799609888</v>
+        <v>38.89793409328327</v>
       </c>
       <c r="G11">
-        <v>55.20961671438972</v>
+        <v>48.82703792770268</v>
       </c>
       <c r="H11">
-        <v>20.69875392275077</v>
+        <v>14.74078279291418</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.990348594518444</v>
+        <v>6.579530850069218</v>
       </c>
       <c r="K11">
-        <v>11.32584370116215</v>
+        <v>12.69694825009159</v>
       </c>
       <c r="L11">
-        <v>11.23168339664038</v>
+        <v>6.893820128855784</v>
       </c>
       <c r="M11">
-        <v>16.23619854965706</v>
+        <v>11.39290055501634</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.56901262779637</v>
+        <v>16.54110188585997</v>
       </c>
       <c r="C12">
-        <v>9.020566318887811</v>
+        <v>7.167054682432081</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.94673073529565</v>
+        <v>8.357065716802278</v>
       </c>
       <c r="F12">
-        <v>47.45306256993808</v>
+        <v>39.13889877409093</v>
       </c>
       <c r="G12">
-        <v>55.24853221309274</v>
+        <v>49.10820257774996</v>
       </c>
       <c r="H12">
-        <v>20.69573862388007</v>
+        <v>14.76956333979462</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.98843822083405</v>
+        <v>6.566375755298731</v>
       </c>
       <c r="K12">
-        <v>11.35557418881199</v>
+        <v>12.85490394835423</v>
       </c>
       <c r="L12">
-        <v>11.23137335396501</v>
+        <v>6.928144149021501</v>
       </c>
       <c r="M12">
-        <v>16.24256218282799</v>
+        <v>11.48040408470055</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.55960833453677</v>
+        <v>16.49443699958632</v>
       </c>
       <c r="C13">
-        <v>9.019234411532157</v>
+        <v>7.162592455275864</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.94725206012905</v>
+        <v>8.351778902793487</v>
       </c>
       <c r="F13">
-        <v>47.44736780719798</v>
+        <v>39.08691212022899</v>
       </c>
       <c r="G13">
-        <v>55.24008168656073</v>
+        <v>49.04746616494358</v>
       </c>
       <c r="H13">
-        <v>20.69636933430685</v>
+        <v>14.76330018338515</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.988848735244845</v>
+        <v>6.569210613926909</v>
       </c>
       <c r="K13">
-        <v>11.34916129298281</v>
+        <v>12.82101473034204</v>
       </c>
       <c r="L13">
-        <v>11.23143062797419</v>
+        <v>6.920743603315282</v>
       </c>
       <c r="M13">
-        <v>16.24117472996147</v>
+        <v>11.46156980922863</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.52898681105702</v>
+        <v>16.34156135597075</v>
       </c>
       <c r="C14">
-        <v>9.014879580404186</v>
+        <v>7.148041372972541</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.9489909101678</v>
+        <v>8.334606030926468</v>
       </c>
       <c r="F14">
-        <v>47.42900882710635</v>
+        <v>38.91771750545892</v>
       </c>
       <c r="G14">
-        <v>55.21278703048236</v>
+        <v>48.85008730912812</v>
       </c>
       <c r="H14">
-        <v>20.69849743093203</v>
+        <v>14.74312150607038</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.990191012715071</v>
+        <v>6.578449304179937</v>
       </c>
       <c r="K14">
-        <v>11.32828514715659</v>
+        <v>12.71000173391203</v>
       </c>
       <c r="L14">
-        <v>11.23165360712612</v>
+        <v>6.896640242947067</v>
       </c>
       <c r="M14">
-        <v>16.23671445444685</v>
+        <v>11.40010448642773</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.51026775130465</v>
+        <v>16.2473880536983</v>
       </c>
       <c r="C15">
-        <v>9.012203523544567</v>
+        <v>7.1391290487909</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.95008575635076</v>
+        <v>8.324139892530606</v>
       </c>
       <c r="F15">
-        <v>47.41792721268624</v>
+        <v>38.81434704772605</v>
       </c>
       <c r="G15">
-        <v>55.19627167400579</v>
+        <v>48.72972086878197</v>
       </c>
       <c r="H15">
-        <v>20.69985567407328</v>
+        <v>14.7309499328176</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.991015889041833</v>
+        <v>6.584103630834544</v>
       </c>
       <c r="K15">
-        <v>11.31552733015788</v>
+        <v>12.64162335590382</v>
       </c>
       <c r="L15">
-        <v>11.23181802158707</v>
+        <v>6.881900692950136</v>
       </c>
       <c r="M15">
-        <v>16.23403205040961</v>
+        <v>11.3624233310681</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.40359949889005</v>
+        <v>15.69950221448237</v>
       </c>
       <c r="C16">
-        <v>8.996736473638977</v>
+        <v>7.088054025098213</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.95681649114446</v>
+        <v>8.264972991086889</v>
       </c>
       <c r="F16">
-        <v>47.35694189778703</v>
+        <v>38.22609192255722</v>
       </c>
       <c r="G16">
-        <v>55.10475770221086</v>
+        <v>48.04809900106803</v>
       </c>
       <c r="H16">
-        <v>20.70847799539397</v>
+        <v>14.66403785009829</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.995784298995439</v>
+        <v>6.616446472771099</v>
       </c>
       <c r="K16">
-        <v>11.24288717980328</v>
+        <v>12.2439158388384</v>
       </c>
       <c r="L16">
-        <v>11.23318761469697</v>
+        <v>6.797822007959425</v>
       </c>
       <c r="M16">
-        <v>16.21942413428675</v>
+        <v>11.14603869085329</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.33873077366522</v>
+        <v>15.37364833265361</v>
       </c>
       <c r="C17">
-        <v>8.987130595888825</v>
+        <v>7.056707009345437</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.96135369005143</v>
+        <v>8.229401217871176</v>
       </c>
       <c r="F17">
-        <v>47.32178592195685</v>
+        <v>37.86893981270823</v>
       </c>
       <c r="G17">
-        <v>55.05142038456402</v>
+        <v>47.63718645625959</v>
       </c>
       <c r="H17">
-        <v>20.71451597088157</v>
+        <v>14.62546820441293</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.998746601777937</v>
+        <v>6.63624623523158</v>
       </c>
       <c r="K17">
-        <v>11.1987642585267</v>
+        <v>11.99466691108905</v>
       </c>
       <c r="L17">
-        <v>11.23441003442459</v>
+        <v>6.746602900030081</v>
       </c>
       <c r="M17">
-        <v>16.21114738824663</v>
+        <v>11.01293833902105</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.30164113434307</v>
+        <v>15.1957915622715</v>
       </c>
       <c r="C18">
-        <v>8.98156247731273</v>
+        <v>7.038667198383537</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.96411360607684</v>
+        <v>8.20920865402015</v>
       </c>
       <c r="F18">
-        <v>47.30239776057456</v>
+        <v>37.66490414926721</v>
       </c>
       <c r="G18">
-        <v>55.02177683644008</v>
+        <v>47.4034899408146</v>
       </c>
       <c r="H18">
-        <v>20.71826389923033</v>
+        <v>14.60417375341568</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.0004640972676</v>
+        <v>6.647623816736023</v>
       </c>
       <c r="K18">
-        <v>11.17355543272481</v>
+        <v>11.84935410911171</v>
       </c>
       <c r="L18">
-        <v>11.23525392771368</v>
+        <v>6.717281394779039</v>
       </c>
       <c r="M18">
-        <v>16.20663966970862</v>
+        <v>10.9362710409119</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.28912234405429</v>
+        <v>15.13525486299019</v>
       </c>
       <c r="C19">
-        <v>8.979669815301436</v>
+        <v>7.032557118988772</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.96507389417237</v>
+        <v>8.202417804407375</v>
       </c>
       <c r="F19">
-        <v>47.29597657068194</v>
+        <v>37.59606177419742</v>
       </c>
       <c r="G19">
-        <v>55.01191813924508</v>
+        <v>47.324818392574</v>
       </c>
       <c r="H19">
-        <v>20.71958012021097</v>
+        <v>14.5971146543424</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.00104796176156</v>
+        <v>6.651474646200768</v>
       </c>
       <c r="K19">
-        <v>11.16505002720901</v>
+        <v>11.79981714293803</v>
       </c>
       <c r="L19">
-        <v>11.23556386640811</v>
+        <v>6.70737797731731</v>
       </c>
       <c r="M19">
-        <v>16.20515697173825</v>
+        <v>10.91029557482566</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.34561354575217</v>
+        <v>15.40641452924061</v>
       </c>
       <c r="C20">
-        <v>8.988157616912117</v>
+        <v>7.06004486968529</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.96085515407988</v>
+        <v>8.233160240843446</v>
       </c>
       <c r="F20">
-        <v>47.32544223505674</v>
+        <v>37.90681601522876</v>
       </c>
       <c r="G20">
-        <v>55.05699124389211</v>
+        <v>47.68065434585416</v>
       </c>
       <c r="H20">
-        <v>20.71384475148614</v>
+        <v>14.62948144599322</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.998429847145585</v>
+        <v>6.634139725929397</v>
       </c>
       <c r="K20">
-        <v>11.20344385499988</v>
+        <v>12.02140151367396</v>
       </c>
       <c r="L20">
-        <v>11.23426534175991</v>
+        <v>6.752041076497061</v>
       </c>
       <c r="M20">
-        <v>16.21200231996921</v>
+        <v>11.02711908664859</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.53797334585369</v>
+        <v>16.38657549039293</v>
       </c>
       <c r="C21">
-        <v>9.016160491773851</v>
+        <v>7.152315217382983</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.94847396932405</v>
+        <v>8.339639132879842</v>
       </c>
       <c r="F21">
-        <v>47.43436719142645</v>
+        <v>38.96735869437819</v>
       </c>
       <c r="G21">
-        <v>55.22076176986288</v>
+        <v>48.90795093603184</v>
       </c>
       <c r="H21">
-        <v>20.69786095335933</v>
+        <v>14.74900907925351</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.989796192399842</v>
+        <v>6.575736670969803</v>
       </c>
       <c r="K21">
-        <v>11.33441088998817</v>
+        <v>12.74268797870827</v>
       </c>
       <c r="L21">
-        <v>11.23158231423124</v>
+        <v>6.903714918175948</v>
       </c>
       <c r="M21">
-        <v>16.23801420700737</v>
+        <v>11.41816507396536</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.66540301458289</v>
+        <v>17.0121355020811</v>
       </c>
       <c r="C22">
-        <v>9.034077344434888</v>
+        <v>7.212634796424849</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.94171440919892</v>
+        <v>8.411592186141167</v>
       </c>
       <c r="F22">
-        <v>47.51289612660585</v>
+        <v>39.67244912905696</v>
       </c>
       <c r="G22">
-        <v>55.33691150803642</v>
+        <v>49.73392072635996</v>
       </c>
       <c r="H22">
-        <v>20.68986385618747</v>
+        <v>14.83550466998635</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.984274239064254</v>
+        <v>6.537371759055276</v>
       </c>
       <c r="K22">
-        <v>11.42134405790937</v>
+        <v>13.19705297056622</v>
       </c>
       <c r="L22">
-        <v>11.23107544211694</v>
+        <v>7.003952734784427</v>
       </c>
       <c r="M22">
-        <v>16.25723971260074</v>
+        <v>11.67235944386808</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.59724732073753</v>
+        <v>16.68042435335909</v>
       </c>
       <c r="C23">
-        <v>9.024550030978194</v>
+        <v>7.180434289871382</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.94520048996397</v>
+        <v>8.372974104260537</v>
       </c>
       <c r="F23">
-        <v>47.47031596641395</v>
+        <v>39.29505099278303</v>
       </c>
       <c r="G23">
-        <v>55.27409114282442</v>
+        <v>49.29088648183971</v>
       </c>
       <c r="H23">
-        <v>20.69390797335724</v>
+        <v>14.78855142854979</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.987210418235474</v>
+        <v>6.557870789188354</v>
       </c>
       <c r="K23">
-        <v>11.3748320183806</v>
+        <v>12.95609117905238</v>
       </c>
       <c r="L23">
-        <v>11.23123225680436</v>
+        <v>6.950357937396801</v>
       </c>
       <c r="M23">
-        <v>16.24677641905381</v>
+        <v>11.53683386349847</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.34250120538182</v>
+        <v>15.39160695680657</v>
       </c>
       <c r="C24">
-        <v>8.987693442666064</v>
+        <v>7.05853588016499</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.96108007048725</v>
+        <v>8.231459982357203</v>
       </c>
       <c r="F24">
-        <v>47.3237866499646</v>
+        <v>37.88968814296583</v>
       </c>
       <c r="G24">
-        <v>55.05446947754953</v>
+        <v>47.66099459603536</v>
       </c>
       <c r="H24">
-        <v>20.71414734808091</v>
+        <v>14.62766432422581</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.998573006948863</v>
+        <v>6.635092095051331</v>
       </c>
       <c r="K24">
-        <v>11.20132771528021</v>
+        <v>12.0093210837039</v>
       </c>
       <c r="L24">
-        <v>11.23433031770552</v>
+        <v>6.749582086042369</v>
       </c>
       <c r="M24">
-        <v>16.21161502416344</v>
+        <v>11.0207084213113</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.07631860048388</v>
+        <v>14.06085092132429</v>
       </c>
       <c r="C25">
-        <v>8.946291455683973</v>
+        <v>6.926627803760767</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.98395565078099</v>
+        <v>8.089046593256528</v>
       </c>
       <c r="F25">
-        <v>47.19759468477811</v>
+        <v>36.42721016266035</v>
       </c>
       <c r="G25">
-        <v>54.85716731601882</v>
+        <v>46.00409375035438</v>
       </c>
       <c r="H25">
-        <v>20.74649314401109</v>
+        <v>14.48788527455497</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.0113521654925</v>
+        <v>6.718025684048169</v>
       </c>
       <c r="K25">
-        <v>11.02075299007345</v>
+        <v>10.91332096070218</v>
       </c>
       <c r="L25">
-        <v>11.24305822894401</v>
+        <v>6.538386478783456</v>
       </c>
       <c r="M25">
-        <v>16.18336715551591</v>
+        <v>10.46003280861301</v>
       </c>
       <c r="N25">
         <v>0</v>
